--- a/medicine/Enfance/Cécile_Bidault/Cécile_Bidault.xlsx
+++ b/medicine/Enfance/Cécile_Bidault/Cécile_Bidault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Bidault</t>
+          <t>Cécile_Bidault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile Bidault (née en 1993) est une artiste plasticienne, peintre et illustratrice française, notamment en littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Bidault</t>
+          <t>Cécile_Bidault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a suivi une formation à l'École Estienne, où elle a obtenu une MANAA, puis de 2012 à 2016 à l'école nationale supérieure des arts décoratifs (ENSAD)[1], où elle a appris les techniques d'animation[2]. Elle vit à Paris[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a suivi une formation à l'École Estienne, où elle a obtenu une MANAA, puis de 2012 à 2016 à l'école nationale supérieure des arts décoratifs (ENSAD), où elle a appris les techniques d'animation. Elle vit à Paris.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Bidault</t>
+          <t>Cécile_Bidault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,24 +556,26 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle a obtenu plusieurs prix, notamment :
 2010 :
-Festival d'Angoulême : Concours de la BD scolaire[4] ; graphisme : Espace Saint Jean à Melun
+Festival d'Angoulême : Concours de la BD scolaire ; graphisme : Espace Saint Jean à Melun
 concours général d'Arts Plastiques - second accessit
 2011 :
-concours de la BD scolaire d’Angoulême - prix graphisme[4]
+concours de la BD scolaire d’Angoulême - prix graphisme
 concours général d'Arts Plastiques - second accessit
 concours ECV - premier prix
-2012 : concours de la BD scolaire d’Angoulême - prix graphisme[4],[5]
+2012 : concours de la BD scolaire d’Angoulême - prix graphisme,
 2013 : concours Jeune Talent d’Angoulême - finaliste
 2015 :
 concours bande dessinée Crous-Cnous - premier prix
 concours Libération – Apaj, catégorie dessin - premier prix
 2018 :
 Festival d'Angoulême : nomination pour L'Écorce des choses (sélection Jeunesse)
-Prix Artémisia, Prix Avenir pour L’Ecorce des Choses[6]</t>
+Prix Artémisia, Prix Avenir pour L’Ecorce des Choses</t>
         </is>
       </c>
     </row>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Bidault</t>
+          <t>Cécile_Bidault</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,12 +603,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cécile Bidault a participé à plusieurs œuvres en tant qu’auteure ou illustratrice[7], dont :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cécile Bidault a participé à plusieurs œuvres en tant qu’auteure ou illustratrice, dont :
 Kyym, le petit mammouth, Jean-Michel Chevry, illustrations de Cécile Bidault, Éd. du Bout de la rue, 2013
-L'écorce des choses[8],[9], Éd. Warum, 2017
-Les gens heureux lisent et boivent du café[10], roman graphique, d'après Agnès Martin-Lugand, adaptation et scénario de Véronique Grisseaux, dessiné par Cécile Bidault, Michel Lafon (2019)</t>
+L'écorce des choses Éd. Warum, 2017
+Les gens heureux lisent et boivent du café, roman graphique, d'après Agnès Martin-Lugand, adaptation et scénario de Véronique Grisseaux, dessiné par Cécile Bidault, Michel Lafon (2019)</t>
         </is>
       </c>
     </row>
